--- a/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/DG_Candidates.xlsx
+++ b/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/DG_Candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Desktop\Workfolder\Pyomo\NR_with_Matpower\Pre_cal_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Practice\Network_Reconfiguration\Distribution\Matpower\33Bus_Advanced\Pre_cal_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A863F755-F4BD-4EC3-9B49-04BE54D2201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA5F1A-ACC8-415B-8B02-5B233D5FF99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="5175" windowWidth="17280" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40900" yWindow="2500" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidate" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Profile</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>Q_Control_Factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,15 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -440,18 +447,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>18</v>
@@ -469,18 +476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -495,6 +502,35 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
@@ -507,15 +543,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B819933-4480-4C46-8FE2-9111831C09F4}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -534,8 +570,11 @@
       <c r="F1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -554,8 +593,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -574,8 +616,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -594,8 +639,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -614,8 +662,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -634,8 +685,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -654,8 +708,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -674,8 +731,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>5.673961760358557E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -694,8 +754,11 @@
       <c r="F9">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0.2773089209936585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -714,8 +777,11 @@
       <c r="F10">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0.53931244933962719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -734,8 +800,11 @@
       <c r="F11">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0.76994230677537789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -754,8 +823,11 @@
       <c r="F12">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0.81643064892957606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -774,8 +846,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0.87684165355457022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -794,8 +869,11 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0.94411862871310737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -814,8 +892,11 @@
       <c r="F15">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0.89848853287560204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -834,8 +915,11 @@
       <c r="F16">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -854,8 +938,11 @@
       <c r="F17">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0.87965479425928583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -874,8 +961,11 @@
       <c r="F18">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0.71196300004768032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -894,8 +984,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.48281123349067856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -914,8 +1007,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0.22991465217183998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -934,8 +1030,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0.12682973346683832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -954,8 +1053,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>9.3930291326944165E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -974,8 +1076,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>4.4914890573594622E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -994,8 +1099,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>2.0550231249701997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1012,6 +1120,9 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
     </row>
@@ -1023,15 +1134,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082D3459-4EBE-44F7-B837-89CACF46186A}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1050,8 +1161,11 @@
       <c r="F1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1070,8 +1184,11 @@
       <c r="F2">
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0.55567715458276334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1090,8 +1207,11 @@
       <c r="F3">
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0.56798905608755135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1110,8 +1230,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0.61860465116279073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1130,8 +1253,11 @@
       <c r="F5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.72831737346101244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1150,8 +1276,11 @@
       <c r="F6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0.85663474692202468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1170,8 +1299,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1190,8 +1322,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0.80902872777017787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1210,8 +1345,11 @@
       <c r="F9">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0.60410396716826265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1230,8 +1368,11 @@
       <c r="F10">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0.37209302325581395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1250,8 +1391,11 @@
       <c r="F11">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0.18686730506155952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1270,8 +1414,11 @@
       <c r="F12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0.20109439124487005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1290,8 +1437,11 @@
       <c r="F13">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0.11846785225718195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1310,8 +1460,11 @@
       <c r="F14">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>7.2503419972640218E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1330,8 +1483,11 @@
       <c r="F15">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0.58714090287277709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1350,8 +1506,11 @@
       <c r="F16">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>0.78276333789329688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1370,8 +1529,11 @@
       <c r="F17">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0.4823529411764706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1390,8 +1552,11 @@
       <c r="F18">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0.14117647058823532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1410,8 +1575,11 @@
       <c r="F19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.10861833105335159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1430,8 +1598,11 @@
       <c r="F20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0.10916552667578661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1450,8 +1621,11 @@
       <c r="F21">
         <v>0.77500000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>7.1409028727770177E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1470,8 +1644,11 @@
       <c r="F22">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0.10725034199726403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1490,8 +1667,11 @@
       <c r="F23">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0.10451436388508892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1510,8 +1690,11 @@
       <c r="F24">
         <v>0.42499999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0.13214774281805747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1529,6 +1712,9 @@
       </c>
       <c r="F25">
         <v>0.95</v>
+      </c>
+      <c r="G25">
+        <v>0.25389876880984952</v>
       </c>
     </row>
   </sheetData>

--- a/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/DG_Candidates.xlsx
+++ b/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/DG_Candidates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Practice\Network_Reconfiguration_v3\Distribution\Matpower\33Bus_Advanced\Pre_cal_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Practice\Network_Reconfiguration_v5\Distribution\Matpower\33Bus_Advanced\Pre_cal_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355486D6-B8F8-4F21-82F4-5EDEA704D68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2290C5-E8AE-4123-9213-1D60E1D01F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="3480" windowWidth="28710" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41580" yWindow="2160" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidate" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>Profile</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,19 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -468,7 +468,7 @@
       <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
@@ -483,8 +483,9 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -497,8 +498,8 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
-        <v>4</v>
+      <c r="E3">
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -512,8 +513,9 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -526,8 +528,8 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
-        <v>6</v>
+      <c r="E4">
+        <v>4</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -541,8 +543,9 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -555,8 +558,8 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
-        <v>7</v>
+      <c r="E5">
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -570,8 +573,9 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -584,8 +588,8 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" s="2">
-        <v>14</v>
+      <c r="E6">
+        <v>6</v>
       </c>
       <c r="F6">
         <v>0.1</v>
@@ -599,8 +603,9 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -613,8 +618,8 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
-        <v>24</v>
+      <c r="E7">
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0.1</v>
@@ -628,8 +633,9 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -642,8 +648,8 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="2">
-        <v>25</v>
+      <c r="E8">
+        <v>8</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -657,8 +663,9 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -671,8 +678,8 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="2">
-        <v>29</v>
+      <c r="E9">
+        <v>9</v>
       </c>
       <c r="F9">
         <v>0.1</v>
@@ -686,8 +693,9 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -700,8 +708,8 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="2">
-        <v>30</v>
+      <c r="E10">
+        <v>10</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -715,8 +723,9 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -729,8 +738,8 @@
       <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
-        <v>31</v>
+      <c r="E11">
+        <v>11</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -744,8 +753,9 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -758,19 +768,629 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>0.1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
         <v>32</v>
       </c>
-      <c r="F12">
-        <v>0.1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0</v>
       </c>
     </row>
@@ -789,9 +1409,9 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -814,7 +1434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -837,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -860,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -883,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -906,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -929,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -952,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -975,7 +1595,7 @@
         <v>5.673961760358557E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -998,7 +1618,7 @@
         <v>0.2773089209936585</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1021,7 +1641,7 @@
         <v>0.53931244933962719</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1044,7 +1664,7 @@
         <v>0.76994230677537789</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1067,7 +1687,7 @@
         <v>0.81643064892957606</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1090,7 +1710,7 @@
         <v>0.87684165355457022</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1113,7 +1733,7 @@
         <v>0.94411862871310737</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1136,7 +1756,7 @@
         <v>0.89848853287560204</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1159,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1182,7 +1802,7 @@
         <v>0.87965479425928583</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1205,7 +1825,7 @@
         <v>0.71196300004768032</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1228,7 +1848,7 @@
         <v>0.48281123349067856</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1251,7 +1871,7 @@
         <v>0.22991465217183998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1274,7 +1894,7 @@
         <v>0.12682973346683832</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1297,7 +1917,7 @@
         <v>9.3930291326944165E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1320,7 +1940,7 @@
         <v>4.4914890573594622E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1343,7 +1963,7 @@
         <v>2.0550231249701997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1380,9 +2000,9 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +2025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1428,7 +2048,7 @@
         <v>0.55567715458276334</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1451,7 +2071,7 @@
         <v>0.56798905608755135</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1474,7 +2094,7 @@
         <v>0.61860465116279073</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1497,7 +2117,7 @@
         <v>0.72831737346101244</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1520,7 +2140,7 @@
         <v>0.85663474692202468</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1543,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1566,7 +2186,7 @@
         <v>0.80902872777017787</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1589,7 +2209,7 @@
         <v>0.60410396716826265</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1612,7 +2232,7 @@
         <v>0.37209302325581395</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1635,7 +2255,7 @@
         <v>0.18686730506155952</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1658,7 +2278,7 @@
         <v>0.20109439124487005</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1681,7 +2301,7 @@
         <v>0.11846785225718195</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1704,7 +2324,7 @@
         <v>7.2503419972640218E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1727,7 +2347,7 @@
         <v>0.58714090287277709</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1750,7 +2370,7 @@
         <v>0.78276333789329688</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1773,7 +2393,7 @@
         <v>0.4823529411764706</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1796,7 +2416,7 @@
         <v>0.14117647058823532</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1819,7 +2439,7 @@
         <v>0.10861833105335159</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1842,7 +2462,7 @@
         <v>0.10916552667578661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1865,7 +2485,7 @@
         <v>7.1409028727770177E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1888,7 +2508,7 @@
         <v>0.10725034199726403</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1911,7 +2531,7 @@
         <v>0.10451436388508892</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1934,7 +2554,7 @@
         <v>0.13214774281805747</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
